--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W15_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W15_H200_B32.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5504587155963303</v>
+        <v>0.5683453237410072</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="E2" t="n">
-        <v>0.547112462006079</v>
+        <v>0.5623100303951368</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7072691552062869</v>
+        <v>0.6869565217391305</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5106382978723404</v>
+        <v>0.4802431610942249</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1007720324250935</v>
+        <v>0.08796537247120546</v>
       </c>
       <c r="J2" t="n">
-        <v>1323.739837099219</v>
+        <v>1185.196013892234</v>
       </c>
       <c r="K2" t="n">
-        <v>2242891.532986884</v>
+        <v>1985887.822694007</v>
       </c>
       <c r="L2" t="n">
-        <v>1497.628636540743</v>
+        <v>1409.215321621933</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5782872840011806</v>
+        <v>0.6266096085966326</v>
       </c>
     </row>
   </sheetData>
